--- a/MatLab/Integration Project/Sequences/RemainingTestOval.xlsx
+++ b/MatLab/Integration Project/Sequences/RemainingTestOval.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16056" yWindow="0" windowWidth="12708" windowHeight="6834"/>
+    <workbookView xWindow="16992" yWindow="0" windowWidth="12708" windowHeight="6834"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -392,10 +392,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -408,64 +408,6 @@
       </c>
       <c r="F2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6">
-        <v>104</v>
-      </c>
-      <c r="D6">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7">
-        <v>128</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8">
-        <v>145</v>
-      </c>
-      <c r="D8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
